--- a/dashboard/server/p.xlsx
+++ b/dashboard/server/p.xlsx
@@ -1,15 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
-  </bookViews>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Текущая номенклатура" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Текущая номенклатура" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -6901,14 +6898,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -6953,7 +6950,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7291,12 +7288,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1282"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="2" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="3" width="60" style="1" customWidth="1"/>
@@ -7322,7 +7314,7 @@
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7339,7 +7331,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7356,7 +7348,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7373,7 +7365,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7390,7 +7382,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7407,7 +7399,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7421,10 +7413,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="2">
-        <v>8.8699999999999992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7441,7 +7433,7 @@
         <v>10.14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7458,7 +7450,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7475,7 +7467,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7492,7 +7484,7 @@
         <v>12.61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7509,7 +7501,7 @@
         <v>13.31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7526,7 +7518,7 @@
         <v>14.11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7543,7 +7535,7 @@
         <v>15.15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7560,7 +7552,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7897,7 +7889,7 @@
         <v>74</v>
       </c>
       <c r="E35" s="2">
-        <v>32.659999999999997</v>
+        <v>32.66</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8509,7 +8501,7 @@
         <v>134</v>
       </c>
       <c r="E71" s="2">
-        <v>16.760000000000002</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8781,7 +8773,7 @@
         <v>166</v>
       </c>
       <c r="E87" s="2">
-        <v>16.420000000000002</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -8798,7 +8790,7 @@
         <v>168</v>
       </c>
       <c r="E88" s="2">
-        <v>17.739999999999998</v>
+        <v>17.74</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -9223,7 +9215,7 @@
         <v>217</v>
       </c>
       <c r="E113" s="2">
-        <v>20.329999999999998</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9308,7 +9300,7 @@
         <v>227</v>
       </c>
       <c r="E118" s="2">
-        <v>16.690000000000001</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9478,7 +9470,7 @@
         <v>247</v>
       </c>
       <c r="E128" s="2">
-        <v>36.159999999999997</v>
+        <v>36.16</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -9563,7 +9555,7 @@
         <v>256</v>
       </c>
       <c r="E133" s="2">
-        <v>16.239999999999998</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -9920,7 +9912,7 @@
         <v>298</v>
       </c>
       <c r="E154" s="2">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -10345,7 +10337,7 @@
         <v>347</v>
       </c>
       <c r="E179" s="2">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -10396,7 +10388,7 @@
         <v>351</v>
       </c>
       <c r="E182" s="2">
-        <v>36.229999999999997</v>
+        <v>36.23</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -10532,7 +10524,7 @@
         <v>367</v>
       </c>
       <c r="E190" s="2">
-        <v>37.090000000000003</v>
+        <v>37.09</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -10617,7 +10609,7 @@
         <v>376</v>
       </c>
       <c r="E195" s="2">
-        <v>38.950000000000003</v>
+        <v>38.95</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -10702,7 +10694,7 @@
         <v>385</v>
       </c>
       <c r="E200" s="2">
-        <v>19.350000000000001</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -10787,7 +10779,7 @@
         <v>394</v>
       </c>
       <c r="E205" s="2">
-        <v>19.350000000000001</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -11008,7 +11000,7 @@
         <v>414</v>
       </c>
       <c r="E218" s="2">
-        <v>19.350000000000001</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -11127,7 +11119,7 @@
         <v>427</v>
       </c>
       <c r="E225" s="2">
-        <v>36.979999999999997</v>
+        <v>36.98</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -11246,7 +11238,7 @@
         <v>441</v>
       </c>
       <c r="E232" s="2">
-        <v>10.220000000000001</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -11450,7 +11442,7 @@
         <v>465</v>
       </c>
       <c r="E244" s="2">
-        <v>16.760000000000002</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -11467,7 +11459,7 @@
         <v>467</v>
       </c>
       <c r="E245" s="2">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -11807,7 +11799,7 @@
         <v>507</v>
       </c>
       <c r="E265" s="2">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -11824,7 +11816,7 @@
         <v>509</v>
       </c>
       <c r="E266" s="2">
-        <v>33.520000000000003</v>
+        <v>33.52</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -11892,7 +11884,7 @@
         <v>517</v>
       </c>
       <c r="E270" s="2">
-        <v>34.729999999999997</v>
+        <v>34.73</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -12028,7 +12020,7 @@
         <v>534</v>
       </c>
       <c r="E278" s="2">
-        <v>70.959999999999994</v>
+        <v>70.96</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -12300,7 +12292,7 @@
         <v>565</v>
       </c>
       <c r="E294" s="2">
-        <v>572.95000000000005</v>
+        <v>572.95</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -12368,7 +12360,7 @@
         <v>573</v>
       </c>
       <c r="E298" s="2">
-        <v>524.45000000000005</v>
+        <v>524.45</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -12538,7 +12530,7 @@
         <v>592</v>
       </c>
       <c r="E308" s="2">
-        <v>315.52999999999997</v>
+        <v>315.53</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -12657,7 +12649,7 @@
         <v>605</v>
       </c>
       <c r="E315" s="2">
-        <v>157.02000000000001</v>
+        <v>157.02</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -12725,7 +12717,7 @@
         <v>611</v>
       </c>
       <c r="E319" s="2">
-        <v>65.260000000000005</v>
+        <v>65.26</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -13014,7 +13006,7 @@
         <v>645</v>
       </c>
       <c r="E336" s="2">
-        <v>147.80000000000001</v>
+        <v>147.8</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -13099,7 +13091,7 @@
         <v>655</v>
       </c>
       <c r="E341" s="2">
-        <v>278.20999999999998</v>
+        <v>278.21</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -13388,7 +13380,7 @@
         <v>689</v>
       </c>
       <c r="E358" s="2">
-        <v>326.47000000000003</v>
+        <v>326.47</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -13558,7 +13550,7 @@
         <v>709</v>
       </c>
       <c r="E368" s="2">
-        <v>258.97000000000003</v>
+        <v>258.97</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -13966,7 +13958,7 @@
         <v>754</v>
       </c>
       <c r="E392" s="2">
-        <v>258.97000000000003</v>
+        <v>258.97</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -14255,7 +14247,7 @@
         <v>788</v>
       </c>
       <c r="E409" s="2">
-        <v>81.790000000000006</v>
+        <v>81.79</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -14272,7 +14264,7 @@
         <v>788</v>
       </c>
       <c r="E410" s="2">
-        <v>81.790000000000006</v>
+        <v>81.79</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -14289,7 +14281,7 @@
         <v>790</v>
       </c>
       <c r="E411" s="2">
-        <v>74.900000000000006</v>
+        <v>74.9</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -14357,7 +14349,7 @@
         <v>796</v>
       </c>
       <c r="E415" s="2">
-        <v>146.02000000000001</v>
+        <v>146.02</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -14374,7 +14366,7 @@
         <v>796</v>
       </c>
       <c r="E416" s="2">
-        <v>146.02000000000001</v>
+        <v>146.02</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -14544,7 +14536,7 @@
         <v>813</v>
       </c>
       <c r="E426" s="2">
-        <v>64.510000000000005</v>
+        <v>64.51</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -14561,7 +14553,7 @@
         <v>815</v>
       </c>
       <c r="E427" s="2">
-        <v>76.319999999999993</v>
+        <v>76.32</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -14612,7 +14604,7 @@
         <v>819</v>
       </c>
       <c r="E430" s="2">
-        <v>77.239999999999995</v>
+        <v>77.24</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -14782,7 +14774,7 @@
         <v>837</v>
       </c>
       <c r="E440" s="2">
-        <v>68.260000000000005</v>
+        <v>68.26</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -14850,7 +14842,7 @@
         <v>844</v>
       </c>
       <c r="E444" s="2">
-        <v>80.180000000000007</v>
+        <v>80.18</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -14867,7 +14859,7 @@
         <v>844</v>
       </c>
       <c r="E445" s="2">
-        <v>80.180000000000007</v>
+        <v>80.18</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -14918,7 +14910,7 @@
         <v>846</v>
       </c>
       <c r="E448" s="2">
-        <v>81.680000000000007</v>
+        <v>81.68</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -14969,7 +14961,7 @@
         <v>850</v>
       </c>
       <c r="E451" s="2">
-        <v>155.63999999999999</v>
+        <v>155.64</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -15360,7 +15352,7 @@
         <v>878</v>
       </c>
       <c r="E474" s="2">
-        <v>139.80000000000001</v>
+        <v>139.8</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -15411,7 +15403,7 @@
         <v>883</v>
       </c>
       <c r="E477" s="2">
-        <v>129.94999999999999</v>
+        <v>129.95</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -15462,7 +15454,7 @@
         <v>887</v>
       </c>
       <c r="E480" s="2">
-        <v>131.72999999999999</v>
+        <v>131.73</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -15717,7 +15709,7 @@
         <v>907</v>
       </c>
       <c r="E495" s="2">
-        <v>77.069999999999993</v>
+        <v>77.07</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -15785,7 +15777,7 @@
         <v>914</v>
       </c>
       <c r="E499" s="2">
-        <v>70.959999999999994</v>
+        <v>70.96</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -15836,7 +15828,7 @@
         <v>920</v>
       </c>
       <c r="E502" s="2">
-        <v>76.260000000000005</v>
+        <v>76.26</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -16431,7 +16423,7 @@
         <v>987</v>
       </c>
       <c r="E537" s="2">
-        <v>264.79000000000002</v>
+        <v>264.79</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -16465,7 +16457,7 @@
         <v>991</v>
       </c>
       <c r="E539" s="2">
-        <v>77.930000000000007</v>
+        <v>77.93</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -16686,7 +16678,7 @@
         <v>1016</v>
       </c>
       <c r="E552" s="2">
-        <v>267.20999999999998</v>
+        <v>267.21</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -16771,7 +16763,7 @@
         <v>1024</v>
       </c>
       <c r="E557" s="2">
-        <v>77.989999999999995</v>
+        <v>77.99</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
@@ -16805,7 +16797,7 @@
         <v>1027</v>
       </c>
       <c r="E559" s="2">
-        <v>75.510000000000005</v>
+        <v>75.51</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -17247,7 +17239,7 @@
         <v>1070</v>
       </c>
       <c r="E585" s="2">
-        <v>77.930000000000007</v>
+        <v>77.93</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
@@ -17281,7 +17273,7 @@
         <v>1072</v>
       </c>
       <c r="E587" s="2">
-        <v>76.900000000000006</v>
+        <v>76.9</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -18148,7 +18140,7 @@
         <v>1133</v>
       </c>
       <c r="E638" s="2">
-        <v>66.819999999999993</v>
+        <v>66.82</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -18318,7 +18310,7 @@
         <v>1147</v>
       </c>
       <c r="E648" s="2">
-        <v>129.77000000000001</v>
+        <v>129.77</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
@@ -18335,7 +18327,7 @@
         <v>1147</v>
       </c>
       <c r="E649" s="2">
-        <v>129.77000000000001</v>
+        <v>129.77</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
@@ -18420,7 +18412,7 @@
         <v>1150</v>
       </c>
       <c r="E654" s="2">
-        <v>131.38999999999999</v>
+        <v>131.39</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -18437,7 +18429,7 @@
         <v>1150</v>
       </c>
       <c r="E655" s="2">
-        <v>131.38999999999999</v>
+        <v>131.39</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
@@ -18488,7 +18480,7 @@
         <v>1152</v>
       </c>
       <c r="E658" s="2">
-        <v>131.38999999999999</v>
+        <v>131.39</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
@@ -18505,7 +18497,7 @@
         <v>1152</v>
       </c>
       <c r="E659" s="2">
-        <v>131.38999999999999</v>
+        <v>131.39</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -18726,7 +18718,7 @@
         <v>1162</v>
       </c>
       <c r="E672" s="2">
-        <v>143.08000000000001</v>
+        <v>143.08</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -18743,7 +18735,7 @@
         <v>1162</v>
       </c>
       <c r="E673" s="2">
-        <v>143.08000000000001</v>
+        <v>143.08</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
@@ -18828,7 +18820,7 @@
         <v>1168</v>
       </c>
       <c r="E678" s="2">
-        <v>20.329999999999998</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
@@ -19117,7 +19109,7 @@
         <v>1190</v>
       </c>
       <c r="E695" s="2">
-        <v>65.260000000000005</v>
+        <v>65.26</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
@@ -19134,7 +19126,7 @@
         <v>1190</v>
       </c>
       <c r="E696" s="2">
-        <v>65.260000000000005</v>
+        <v>65.26</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
@@ -19151,7 +19143,7 @@
         <v>1192</v>
       </c>
       <c r="E697" s="2">
-        <v>136.16999999999999</v>
+        <v>136.17</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
@@ -19168,7 +19160,7 @@
         <v>1192</v>
       </c>
       <c r="E698" s="2">
-        <v>136.16999999999999</v>
+        <v>136.17</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
@@ -19423,7 +19415,7 @@
         <v>1212</v>
       </c>
       <c r="E713" s="2">
-        <v>157.19999999999999</v>
+        <v>157.2</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
@@ -19559,7 +19551,7 @@
         <v>1224</v>
       </c>
       <c r="E721" s="2">
-        <v>308.91000000000003</v>
+        <v>308.91</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
@@ -19576,7 +19568,7 @@
         <v>1224</v>
       </c>
       <c r="E722" s="2">
-        <v>308.91000000000003</v>
+        <v>308.91</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
@@ -19644,7 +19636,7 @@
         <v>1230</v>
       </c>
       <c r="E726" s="2">
-        <v>140.19999999999999</v>
+        <v>140.2</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
@@ -20086,7 +20078,7 @@
         <v>1281</v>
       </c>
       <c r="E752" s="2">
-        <v>16.239999999999998</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
@@ -20324,7 +20316,7 @@
         <v>1309</v>
       </c>
       <c r="E766" s="2">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
@@ -20426,7 +20418,7 @@
         <v>1321</v>
       </c>
       <c r="E772" s="2">
-        <v>144.38999999999999</v>
+        <v>144.39</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
@@ -20562,7 +20554,7 @@
         <v>1331</v>
       </c>
       <c r="E780" s="2">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
@@ -20579,7 +20571,7 @@
         <v>1333</v>
       </c>
       <c r="E781" s="2">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
@@ -20613,7 +20605,7 @@
         <v>1337</v>
       </c>
       <c r="E783" s="2">
-        <v>9.0399999999999991</v>
+        <v>9.04</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
@@ -20698,7 +20690,7 @@
         <v>1345</v>
       </c>
       <c r="E788" s="2">
-        <v>9.2200000000000006</v>
+        <v>9.22</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
@@ -20732,7 +20724,7 @@
         <v>1350</v>
       </c>
       <c r="E790" s="2">
-        <v>16.190000000000001</v>
+        <v>16.19</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
@@ -21259,7 +21251,7 @@
         <v>1412</v>
       </c>
       <c r="E821" s="2">
-        <v>143.47999999999999</v>
+        <v>143.48</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
@@ -21276,7 +21268,7 @@
         <v>1413</v>
       </c>
       <c r="E822" s="2">
-        <v>143.47999999999999</v>
+        <v>143.48</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
@@ -21361,7 +21353,7 @@
         <v>1424</v>
       </c>
       <c r="E827" s="2">
-        <v>72.459999999999994</v>
+        <v>72.46</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
@@ -21378,7 +21370,7 @@
         <v>1426</v>
       </c>
       <c r="E828" s="2">
-        <v>72.459999999999994</v>
+        <v>72.46</v>
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
@@ -21463,7 +21455,7 @@
         <v>1437</v>
       </c>
       <c r="E833" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
@@ -21565,7 +21557,7 @@
         <v>1449</v>
       </c>
       <c r="E839" s="2">
-        <v>33.409999999999997</v>
+        <v>33.41</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
@@ -21650,7 +21642,7 @@
         <v>1460</v>
       </c>
       <c r="E844" s="2">
-        <v>19.010000000000002</v>
+        <v>19.01</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
@@ -21735,7 +21727,7 @@
         <v>1471</v>
       </c>
       <c r="E849" s="2">
-        <v>8.4700000000000006</v>
+        <v>8.47</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
@@ -22177,7 +22169,7 @@
         <v>1524</v>
       </c>
       <c r="E875" s="2">
-        <v>35.880000000000003</v>
+        <v>35.88</v>
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
@@ -22228,7 +22220,7 @@
         <v>1530</v>
       </c>
       <c r="E878" s="2">
-        <v>8.4700000000000006</v>
+        <v>8.47</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
@@ -22245,7 +22237,7 @@
         <v>1532</v>
       </c>
       <c r="E879" s="2">
-        <v>9.2200000000000006</v>
+        <v>9.22</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
@@ -22347,7 +22339,7 @@
         <v>1544</v>
       </c>
       <c r="E885" s="2">
-        <v>73.900000000000006</v>
+        <v>73.9</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
@@ -22534,7 +22526,7 @@
         <v>1566</v>
       </c>
       <c r="E896" s="2">
-        <v>19.809999999999999</v>
+        <v>19.81</v>
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
@@ -22551,7 +22543,7 @@
         <v>1568</v>
       </c>
       <c r="E897" s="2">
-        <v>16.190000000000001</v>
+        <v>16.19</v>
       </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
@@ -22636,7 +22628,7 @@
         <v>1578</v>
       </c>
       <c r="E902" s="2">
-        <v>16.239999999999998</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
@@ -22857,7 +22849,7 @@
         <v>1604</v>
       </c>
       <c r="E915" s="2">
-        <v>19.760000000000002</v>
+        <v>19.76</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
@@ -22976,7 +22968,7 @@
         <v>1618</v>
       </c>
       <c r="E922" s="2">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
@@ -23010,7 +23002,7 @@
         <v>1622</v>
       </c>
       <c r="E924" s="2">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
@@ -23350,7 +23342,7 @@
         <v>1661</v>
       </c>
       <c r="E944" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
@@ -23367,7 +23359,7 @@
         <v>1663</v>
       </c>
       <c r="E945" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
@@ -23384,7 +23376,7 @@
         <v>1665</v>
       </c>
       <c r="E946" s="2">
-        <v>34.270000000000003</v>
+        <v>34.27</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
@@ -23503,7 +23495,7 @@
         <v>1679</v>
       </c>
       <c r="E953" s="2">
-        <v>17.510000000000002</v>
+        <v>17.51</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
@@ -23775,7 +23767,7 @@
         <v>1711</v>
       </c>
       <c r="E969" s="2">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
@@ -23928,7 +23920,7 @@
         <v>1729</v>
       </c>
       <c r="E978" s="2">
-        <v>9.2200000000000006</v>
+        <v>9.22</v>
       </c>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
@@ -25373,7 +25365,7 @@
         <v>1863</v>
       </c>
       <c r="E1063" s="2">
-        <v>72.400000000000006</v>
+        <v>72.4</v>
       </c>
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
@@ -25662,7 +25654,7 @@
         <v>1894</v>
       </c>
       <c r="E1080" s="2">
-        <v>16.420000000000002</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
@@ -25730,7 +25722,7 @@
         <v>1902</v>
       </c>
       <c r="E1084" s="2">
-        <v>278.95999999999998</v>
+        <v>278.96</v>
       </c>
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
@@ -25798,7 +25790,7 @@
         <v>1910</v>
       </c>
       <c r="E1088" s="2">
-        <v>16.239999999999998</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
@@ -25866,7 +25858,7 @@
         <v>1917</v>
       </c>
       <c r="E1092" s="2">
-        <v>35.020000000000003</v>
+        <v>35.02</v>
       </c>
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
@@ -25883,7 +25875,7 @@
         <v>1919</v>
       </c>
       <c r="E1093" s="2">
-        <v>40.380000000000003</v>
+        <v>40.38</v>
       </c>
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
@@ -26053,7 +26045,7 @@
         <v>1940</v>
       </c>
       <c r="E1103" s="2">
-        <v>139.05000000000001</v>
+        <v>139.05</v>
       </c>
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
@@ -26070,7 +26062,7 @@
         <v>1943</v>
       </c>
       <c r="E1104" s="2">
-        <v>296.35000000000002</v>
+        <v>296.35</v>
       </c>
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
@@ -26087,7 +26079,7 @@
         <v>1944</v>
       </c>
       <c r="E1105" s="2">
-        <v>296.35000000000002</v>
+        <v>296.35</v>
       </c>
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.25">
@@ -26138,7 +26130,7 @@
         <v>1950</v>
       </c>
       <c r="E1108" s="2">
-        <v>9.6199999999999992</v>
+        <v>9.62</v>
       </c>
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
@@ -26172,7 +26164,7 @@
         <v>1954</v>
       </c>
       <c r="E1110" s="2">
-        <v>9.7899999999999991</v>
+        <v>9.79</v>
       </c>
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
@@ -26308,7 +26300,7 @@
         <v>1970</v>
       </c>
       <c r="E1118" s="2">
-        <v>37.380000000000003</v>
+        <v>37.38</v>
       </c>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.25">
@@ -26478,7 +26470,7 @@
         <v>1991</v>
       </c>
       <c r="E1128" s="2">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
@@ -26529,7 +26521,7 @@
         <v>1997</v>
       </c>
       <c r="E1131" s="2">
-        <v>19.579999999999998</v>
+        <v>19.58</v>
       </c>
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.25">
@@ -26614,7 +26606,7 @@
         <v>2007</v>
       </c>
       <c r="E1136" s="2">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
     </row>
     <row r="1137" spans="1:5" x14ac:dyDescent="0.25">
@@ -26767,7 +26759,7 @@
         <v>2025</v>
       </c>
       <c r="E1145" s="2">
-        <v>66.180000000000007</v>
+        <v>66.18</v>
       </c>
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.25">
@@ -26903,7 +26895,7 @@
         <v>2041</v>
       </c>
       <c r="E1153" s="2">
-        <v>16.190000000000001</v>
+        <v>16.19</v>
       </c>
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
@@ -27022,7 +27014,7 @@
         <v>2055</v>
       </c>
       <c r="E1160" s="2">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1161" spans="1:5" x14ac:dyDescent="0.25">
@@ -27107,7 +27099,7 @@
         <v>2065</v>
       </c>
       <c r="E1165" s="2">
-        <v>80.989999999999995</v>
+        <v>80.99</v>
       </c>
     </row>
     <row r="1166" spans="1:5" x14ac:dyDescent="0.25">
@@ -27243,7 +27235,7 @@
         <v>2081</v>
       </c>
       <c r="E1173" s="2">
-        <v>287.64999999999998</v>
+        <v>287.65</v>
       </c>
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.25">
@@ -27294,7 +27286,7 @@
         <v>2088</v>
       </c>
       <c r="E1176" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
@@ -27379,7 +27371,7 @@
         <v>2098</v>
       </c>
       <c r="E1181" s="2">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
@@ -27685,7 +27677,7 @@
         <v>2129</v>
       </c>
       <c r="E1199" s="2">
-        <v>311.16000000000003</v>
+        <v>311.16</v>
       </c>
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.25">
@@ -27702,7 +27694,7 @@
         <v>2131</v>
       </c>
       <c r="E1200" s="2">
-        <v>319.97000000000003</v>
+        <v>319.97</v>
       </c>
     </row>
     <row r="1201" spans="1:5" x14ac:dyDescent="0.25">
@@ -28518,7 +28510,7 @@
         <v>2225</v>
       </c>
       <c r="E1248" s="2">
-        <v>33.119999999999997</v>
+        <v>33.12</v>
       </c>
     </row>
     <row r="1249" spans="1:5" x14ac:dyDescent="0.25">
@@ -28637,7 +28629,7 @@
         <v>2239</v>
       </c>
       <c r="E1255" s="2">
-        <v>66.760000000000005</v>
+        <v>66.76</v>
       </c>
     </row>
     <row r="1256" spans="1:5" x14ac:dyDescent="0.25">
@@ -28688,7 +28680,7 @@
         <v>2245</v>
       </c>
       <c r="E1258" s="2">
-        <v>66.760000000000005</v>
+        <v>66.76</v>
       </c>
     </row>
     <row r="1259" spans="1:5" x14ac:dyDescent="0.25">
@@ -28977,7 +28969,7 @@
         <v>2279</v>
       </c>
       <c r="E1275" s="2">
-        <v>128.38999999999999</v>
+        <v>128.39</v>
       </c>
     </row>
     <row r="1276" spans="1:5" x14ac:dyDescent="0.25">
@@ -29101,6 +29093,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>